--- a/biology/Zoologie/Guêpier_nain/Guêpier_nain.xlsx
+++ b/biology/Zoologie/Guêpier_nain/Guêpier_nain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_nain</t>
+          <t>Guêpier_nain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Merops pusillus
 Le Guêpier nain (Merops pusillus) est une espèce d'oiseaux de la famille des Meropidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_nain</t>
+          <t>Guêpier_nain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sous-espèce selon l'IOC World Bird List[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sous-espèce selon l'IOC World Bird List
 Merops pusillus pusillus Statius Müller, 1776 - (Sénégal, Gambie, Sud-Ouest du Soudan, Nord de la République Démographique du Congo)
 Merops pusillus ocularis (Reichenow, 1900) - (Est de la République Démographique du Congo, Nord de l'Ouganda, Centre du Soudan jusqu'aux côtes de la Mer Rouge)
 Merops pusillus cyanostictus Cabanis, 1869 - (Est de l'Ethiopie, Ouest de la Somalie, Est du Kenya)
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_nain</t>
+          <t>Guêpier_nain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Guêpier nain est représenté sur un timbre du Burundi de 1965 (valeur faciale 14 F, Y&amp;T PA 11).
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_nain</t>
+          <t>Guêpier_nain</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			près du Lac Manyara, Tanzanie.
